--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/158.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/158.xlsx
@@ -479,13 +479,13 @@
         <v>-7.999356276417428</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28781963949574</v>
+        <v>-11.28118184195498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5901197444488687</v>
+        <v>0.5933273586450916</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.23192259084398</v>
+        <v>-5.230430068320024</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.749493993179786</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.48015866054354</v>
+        <v>-11.47553707764041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6631224250943333</v>
+        <v>0.6646149476182901</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.117129279527726</v>
+        <v>-5.1132932347951</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.434082674444497</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02711579636233</v>
+        <v>-12.02183959831711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6782047579680017</v>
+        <v>0.6797889266118505</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.811122885208063</v>
+        <v>-4.807129732841336</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.055026777381892</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.716111325711</v>
+        <v>-12.70862252848554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6904198765193321</v>
+        <v>0.692292075825699</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.894586315824066</v>
+        <v>-4.894560131218383</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.585970279171931</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31885476393839</v>
+        <v>-13.31012219794296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7234124796804818</v>
+        <v>0.7263058786085033</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.191032145715391</v>
+        <v>-4.194239759911613</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.009124345524524</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.60234239737028</v>
+        <v>-13.5944084618482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8356658842454411</v>
+        <v>0.8376428219745418</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.205394401932764</v>
+        <v>-4.207934308684059</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.317915703399282</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17840372240623</v>
+        <v>-14.17304897054396</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9164192081732075</v>
+        <v>0.9215252062814807</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.789177002291451</v>
+        <v>-3.793890231314472</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.512440782269911</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.97150924395231</v>
+        <v>-14.9633789238876</v>
       </c>
       <c r="F9" t="n">
-        <v>1.140939109605968</v>
+        <v>1.14292913963791</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.42243541508902</v>
+        <v>-3.429348150989452</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.616774744915237</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56714356173664</v>
+        <v>-15.56096399479534</v>
       </c>
       <c r="F10" t="n">
-        <v>1.185492216176362</v>
+        <v>1.188005938321973</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.725584504035309</v>
+        <v>-2.729944240881603</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.658261114680762</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.17259710665226</v>
+        <v>-16.16429658665061</v>
       </c>
       <c r="F11" t="n">
-        <v>1.132887343358306</v>
+        <v>1.133869266071436</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.283077760287809</v>
+        <v>-2.287097097260219</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.687535390894545</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.64457462409649</v>
+        <v>-16.63729530371648</v>
       </c>
       <c r="F12" t="n">
-        <v>1.163078193711327</v>
+        <v>1.163457870493737</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.860301116922791</v>
+        <v>-1.863744392570165</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.7489209997444004</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44252429769401</v>
+        <v>-17.43434160841793</v>
       </c>
       <c r="F13" t="n">
-        <v>1.383644219685886</v>
+        <v>1.381287605174375</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.069814055945054</v>
+        <v>-1.072563439541817</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09987449183824142</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.2546791198748</v>
+        <v>-18.247714014763</v>
       </c>
       <c r="F14" t="n">
-        <v>1.589167189695301</v>
+        <v>1.584872914363215</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8684151613307822</v>
+        <v>-0.8682449613938398</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8168675688589038</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09489074704541</v>
+        <v>-19.08988948735987</v>
       </c>
       <c r="F15" t="n">
-        <v>1.639022678916594</v>
+        <v>1.635592495572062</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4362513368282464</v>
+        <v>-0.434313676007671</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.362418591031003</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08770625613918</v>
+        <v>-20.08288828869343</v>
       </c>
       <c r="F16" t="n">
-        <v>1.961747943965142</v>
+        <v>1.958003545352408</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1301871456190319</v>
+        <v>0.1338006212033483</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.71449794847056</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.80097491495642</v>
+        <v>-20.79605220908793</v>
       </c>
       <c r="F17" t="n">
-        <v>2.026109704735067</v>
+        <v>2.02157976795183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2337734457027686</v>
+        <v>0.2364704600881642</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.858679126069573</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.71048410106829</v>
+        <v>-21.70563994901685</v>
       </c>
       <c r="F18" t="n">
-        <v>2.144830706903839</v>
+        <v>2.142002769490027</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7920292388739681</v>
+        <v>0.7962580526918457</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.794640350683542</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71582894398159</v>
+        <v>-22.71068366896479</v>
       </c>
       <c r="F19" t="n">
-        <v>2.24496063903736</v>
+        <v>2.241032948184842</v>
       </c>
       <c r="G19" t="n">
-        <v>1.012451249517268</v>
+        <v>1.016431309581153</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.527822114796754</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07658734878535</v>
+        <v>-23.0696353359764</v>
       </c>
       <c r="F20" t="n">
-        <v>2.546057419791377</v>
+        <v>2.541632221430873</v>
       </c>
       <c r="G20" t="n">
-        <v>1.610978966229617</v>
+        <v>1.616922871719761</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.07702389550716</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02900001130956</v>
+        <v>-24.02262405982563</v>
       </c>
       <c r="F21" t="n">
-        <v>2.672764726693601</v>
+        <v>2.669098881897918</v>
       </c>
       <c r="G21" t="n">
-        <v>1.720613910226231</v>
+        <v>1.726007938997022</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4626503167347523</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37259440708782</v>
+        <v>-24.36298465680199</v>
       </c>
       <c r="F22" t="n">
-        <v>2.75618888040108</v>
+        <v>2.751685128223526</v>
       </c>
       <c r="G22" t="n">
-        <v>1.989686918229385</v>
+        <v>1.994452516463774</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.281197023433242</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.90902533142186</v>
+        <v>-24.90030585772927</v>
       </c>
       <c r="F23" t="n">
-        <v>2.69452413401655</v>
+        <v>2.689627612753744</v>
       </c>
       <c r="G23" t="n">
-        <v>2.531158379157492</v>
+        <v>2.538123484269291</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.123961821720436</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.4415023802977</v>
+        <v>-25.43354226016993</v>
       </c>
       <c r="F24" t="n">
-        <v>2.579468976643462</v>
+        <v>2.574703378409073</v>
       </c>
       <c r="G24" t="n">
-        <v>2.324928424794623</v>
+        <v>2.33173642227232</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.022573221204312</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58622469591014</v>
+        <v>-25.57751831452039</v>
       </c>
       <c r="F25" t="n">
-        <v>2.705312191558132</v>
+        <v>2.698530378686118</v>
       </c>
       <c r="G25" t="n">
-        <v>2.233989289255994</v>
+        <v>2.242473101497432</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.941661081753505</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.6627099291115</v>
+        <v>-25.6559019316338</v>
       </c>
       <c r="F26" t="n">
-        <v>2.869123084713809</v>
+        <v>2.862943517772514</v>
       </c>
       <c r="G26" t="n">
-        <v>2.234539165975346</v>
+        <v>2.245667623390814</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.838407667706556</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.42016192666568</v>
+        <v>-25.4120708835095</v>
       </c>
       <c r="F27" t="n">
-        <v>2.570251995442886</v>
+        <v>2.563784397839073</v>
       </c>
       <c r="G27" t="n">
-        <v>1.949807763773488</v>
+        <v>1.959810283144567</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.679668977371269</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51261976933396</v>
+        <v>-25.50700317141485</v>
       </c>
       <c r="F28" t="n">
-        <v>2.835973373918558</v>
+        <v>2.830265129879566</v>
       </c>
       <c r="G28" t="n">
-        <v>1.902099412218238</v>
+        <v>1.911971008560899</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.428612554680578</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.72733353593826</v>
+        <v>-25.71890209290819</v>
       </c>
       <c r="F29" t="n">
-        <v>2.66744925173986</v>
+        <v>2.662578915082738</v>
       </c>
       <c r="G29" t="n">
-        <v>1.802493172198386</v>
+        <v>1.811029353651191</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.058703547626816</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38058389517515</v>
+        <v>-25.37509822028446</v>
       </c>
       <c r="F30" t="n">
-        <v>2.639274616024466</v>
+        <v>2.633042679871804</v>
       </c>
       <c r="G30" t="n">
-        <v>1.933101985347445</v>
+        <v>1.939805244402409</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.548966949737192</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61681822429737</v>
+        <v>-24.61056010353903</v>
       </c>
       <c r="F31" t="n">
-        <v>2.551556186984901</v>
+        <v>2.545900312157276</v>
       </c>
       <c r="G31" t="n">
-        <v>1.403204120131424</v>
+        <v>1.41037870208869</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.889921150124083</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.74002988634086</v>
+        <v>-24.73241016608697</v>
       </c>
       <c r="F32" t="n">
-        <v>2.532441424835981</v>
+        <v>2.525581058146917</v>
       </c>
       <c r="G32" t="n">
-        <v>1.506528574158327</v>
+        <v>1.513179464001923</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.085406686809401</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.17038378969736</v>
+        <v>-24.16370671524808</v>
       </c>
       <c r="F33" t="n">
-        <v>2.586093681881375</v>
+        <v>2.579678453488929</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7477510706632505</v>
+        <v>0.7541008375414877</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.147374174554874</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52595445922191</v>
+        <v>-23.52071753808523</v>
       </c>
       <c r="F34" t="n">
-        <v>2.562370429132167</v>
+        <v>2.556531262064757</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6803518956340447</v>
+        <v>0.6856150013764186</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.101137003901492</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89103014060957</v>
+        <v>-22.88761304956788</v>
       </c>
       <c r="F35" t="n">
-        <v>2.436736691062964</v>
+        <v>2.431683062166058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7318177381048699</v>
+        <v>0.7381282280745819</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.970842703994571</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08768643824126</v>
+        <v>-22.08381111660011</v>
       </c>
       <c r="F36" t="n">
-        <v>2.292092929267574</v>
+        <v>2.287274961821819</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7478689013888261</v>
+        <v>0.7526344996232144</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.788170660115318</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.14428128007216</v>
+        <v>-21.13896580511842</v>
       </c>
       <c r="F37" t="n">
-        <v>2.332286298991673</v>
+        <v>2.329222700126709</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6861779703986128</v>
+        <v>0.6903544150051235</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.577986390781118</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01343680547195</v>
+        <v>-21.00945674540807</v>
       </c>
       <c r="F38" t="n">
-        <v>2.162374392711752</v>
+        <v>2.158420517253551</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3948087706559992</v>
+        <v>0.3977545387953876</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.365209238865956</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.16131118271537</v>
+        <v>-20.15672887672076</v>
       </c>
       <c r="F39" t="n">
-        <v>2.400575750614117</v>
+        <v>2.399423627964044</v>
       </c>
       <c r="G39" t="n">
-        <v>0.232752246081114</v>
+        <v>0.2314430157969413</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.169069897629351</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.6444532511297</v>
+        <v>-19.63904613005607</v>
       </c>
       <c r="F40" t="n">
-        <v>2.238676333673332</v>
+        <v>2.234905750454915</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.08706652773657043</v>
+        <v>-0.08770805057581502</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.002701579183594</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69674072532568</v>
+        <v>-18.69096701977248</v>
       </c>
       <c r="F41" t="n">
-        <v>2.457684375609726</v>
+        <v>2.4558252686062</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1528160726077188</v>
+        <v>-0.1544918873714597</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.875622291169102</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.42283665757393</v>
+        <v>-18.41735098268325</v>
       </c>
       <c r="F42" t="n">
-        <v>2.468629540785408</v>
+        <v>2.465696864948862</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3988597199122768</v>
+        <v>-0.3994357812373127</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.788466078331038</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50532807442577</v>
+        <v>-17.50098142988231</v>
       </c>
       <c r="F43" t="n">
-        <v>2.81709427322079</v>
+        <v>2.814501997258128</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.4023684570738593</v>
+        <v>-0.4007450115214853</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.740920707540173</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05721782506201</v>
+        <v>-17.05213801155942</v>
       </c>
       <c r="F44" t="n">
-        <v>2.751763682040576</v>
+        <v>2.748857190809713</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7284191670442053</v>
+        <v>-0.7279216595362198</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.723877734052516</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.33193043223607</v>
+        <v>-16.32398340441114</v>
       </c>
       <c r="F45" t="n">
-        <v>2.700598962535111</v>
+        <v>2.699342101462305</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7732733965799589</v>
+        <v>-0.7747397344982322</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.730766317803543</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85704642356098</v>
+        <v>-15.85069665668274</v>
       </c>
       <c r="F46" t="n">
-        <v>2.863650502125967</v>
+        <v>2.861869948939493</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9345181983786571</v>
+        <v>-0.9382102277800238</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.750680708327156</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12750403231148</v>
+        <v>-15.12144229609576</v>
       </c>
       <c r="F47" t="n">
-        <v>2.838775126726688</v>
+        <v>2.837832480922084</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.267769674911952</v>
+        <v>-1.270780904565549</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.776050228974715</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47714388864873</v>
+        <v>-14.47100359861597</v>
       </c>
       <c r="F48" t="n">
-        <v>2.704500468781945</v>
+        <v>2.703688746005758</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.304716153531303</v>
+        <v>-1.309887613153785</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.796499406086324</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87121902083081</v>
+        <v>-13.86564169982024</v>
       </c>
       <c r="F49" t="n">
-        <v>3.097191000216677</v>
+        <v>3.095070047156317</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.494489083222123</v>
+        <v>-1.49932014297072</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.806417739843814</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.27352921150033</v>
+        <v>-13.26981099749328</v>
       </c>
       <c r="F50" t="n">
-        <v>3.150659965022286</v>
+        <v>3.150555226599552</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.455814420627664</v>
+        <v>-1.460776403404678</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.799647422739073</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.41769846703954</v>
+        <v>-12.41441229902627</v>
       </c>
       <c r="F51" t="n">
-        <v>3.136625016375956</v>
+        <v>3.135263416880417</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.468330662144354</v>
+        <v>-1.473200998801476</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.775000227332455</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38719340141832</v>
+        <v>-12.38369775655958</v>
       </c>
       <c r="F52" t="n">
-        <v>3.096798231131425</v>
+        <v>3.097426661667828</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.565802856801005</v>
+        <v>-1.569874562984781</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.731520266628019</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59069697343623</v>
+        <v>-11.58746317463432</v>
       </c>
       <c r="F53" t="n">
-        <v>3.369641822352996</v>
+        <v>3.370008406832565</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.710224049448085</v>
+        <v>-1.71466234011143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.669189909876597</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.351408954398</v>
+        <v>-11.3499949856911</v>
       </c>
       <c r="F54" t="n">
-        <v>3.029372871496536</v>
+        <v>3.028456410297615</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.779102654698406</v>
+        <v>-1.783514760756068</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.591565895924004</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77344924545001</v>
+        <v>-10.77153776923511</v>
       </c>
       <c r="F55" t="n">
-        <v>2.912144391851721</v>
+        <v>2.909237900620858</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.169816248404037</v>
+        <v>-2.173115508720152</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.500232777190906</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22112426546611</v>
+        <v>-10.21884620477165</v>
       </c>
       <c r="F56" t="n">
-        <v>3.130550187857395</v>
+        <v>3.128926742305021</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.442699116534133</v>
+        <v>-2.445513961645104</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.402933021483387</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.62023993424225</v>
+        <v>-9.617032320046025</v>
       </c>
       <c r="F57" t="n">
-        <v>3.15008390369725</v>
+        <v>3.148774673413078</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.92622404508476</v>
+        <v>-2.926433521930228</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.302508133991217</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.485847445571931</v>
+        <v>-9.483307538820636</v>
       </c>
       <c r="F58" t="n">
-        <v>3.110152380029986</v>
+        <v>3.109000257379914</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.751363248330667</v>
+        <v>-2.755578969845703</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.205761149975468</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.888105267030085</v>
+        <v>-8.885421344947531</v>
       </c>
       <c r="F59" t="n">
-        <v>3.211722465476097</v>
+        <v>3.212796034309118</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.118916558309285</v>
+        <v>-3.120160327079249</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.114093495340464</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.772133648458075</v>
+        <v>-8.77307629426268</v>
       </c>
       <c r="F60" t="n">
-        <v>3.010965093701069</v>
+        <v>3.010991278306753</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.83542892487739</v>
+        <v>-2.838047385445735</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.029564167937681</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.333279657203418</v>
+        <v>-8.333489134048886</v>
       </c>
       <c r="F61" t="n">
-        <v>3.072996424565167</v>
+        <v>3.075353039076678</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.295099677650392</v>
+        <v>-3.298307291846615</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.949383024223754</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.96018830312275</v>
+        <v>-7.960476333785268</v>
       </c>
       <c r="F62" t="n">
-        <v>2.885933601562585</v>
+        <v>2.889101938850283</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.412459080323625</v>
+        <v>-3.41499898707492</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.871371896368555</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.768399158794305</v>
+        <v>-7.770860511728549</v>
       </c>
       <c r="F63" t="n">
-        <v>3.169669988748472</v>
+        <v>3.170743557581494</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.392218380130316</v>
+        <v>-3.394810656092978</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.790329413776594</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.502782518741366</v>
+        <v>-7.504955841013093</v>
       </c>
       <c r="F64" t="n">
-        <v>3.026230718814522</v>
+        <v>3.028456410297615</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.720075827892821</v>
+        <v>-3.722785934581058</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.700947623172235</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.217448870608789</v>
+        <v>-7.220080423479976</v>
       </c>
       <c r="F65" t="n">
-        <v>3.12573222041164</v>
+        <v>3.126674866216244</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.75670809124397</v>
+        <v>-3.759941890045877</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.597736686537309</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.002433981039122</v>
+        <v>-7.004751318642107</v>
       </c>
       <c r="F66" t="n">
-        <v>2.974699414829488</v>
+        <v>2.975354029971574</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.8092736871535</v>
+        <v>-3.812311101412781</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.474651315217919</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.095664269575053</v>
+        <v>-7.099866898787247</v>
       </c>
       <c r="F67" t="n">
-        <v>2.973913876658984</v>
+        <v>2.975380214577258</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.69678462113739</v>
+        <v>-3.697766543850519</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.330252647282167</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.787824952857548</v>
+        <v>-6.79079690560262</v>
       </c>
       <c r="F68" t="n">
-        <v>2.940999827314885</v>
+        <v>2.941209304160353</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.671791415012535</v>
+        <v>-3.673166106810916</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.160638165463789</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.960106565951821</v>
+        <v>-6.962711934217324</v>
       </c>
       <c r="F69" t="n">
-        <v>2.700468039506694</v>
+        <v>2.70264136177842</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.713568953380483</v>
+        <v>-3.715153122024331</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.968649703674342</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.713931995618846</v>
+        <v>-6.714861549120609</v>
       </c>
       <c r="F70" t="n">
-        <v>2.76438466198</v>
+        <v>2.766139030560792</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.520090901985455</v>
+        <v>-3.519593394477469</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.751773925437582</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.633427425445072</v>
+        <v>-6.633191763993922</v>
       </c>
       <c r="F71" t="n">
-        <v>2.672136296157198</v>
+        <v>2.674231064611875</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.51277230469693</v>
+        <v>-3.510559705516678</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.515223870807968</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.805002054185892</v>
+        <v>-6.802161024469238</v>
       </c>
       <c r="F72" t="n">
-        <v>2.816858611769638</v>
+        <v>2.819607995366401</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.386627966816899</v>
+        <v>-3.384153521579813</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.25950594887924</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.951622753710383</v>
+        <v>-6.947668878252181</v>
       </c>
       <c r="F73" t="n">
-        <v>2.575357993551159</v>
+        <v>2.577819346485404</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.304238105033917</v>
+        <v>-3.301514906042838</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.989891316004962</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.224152129663753</v>
+        <v>-7.219478177549256</v>
       </c>
       <c r="F74" t="n">
-        <v>2.708428159634463</v>
+        <v>2.71075858954029</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.272607101368307</v>
+        <v>-3.268509210578847</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.708820268386118</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.394090220549357</v>
+        <v>-7.388251053481947</v>
       </c>
       <c r="F75" t="n">
-        <v>2.263735001312396</v>
+        <v>2.26535844686477</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.008456799233642</v>
+        <v>-3.003311524216843</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.421277000640148</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.82934382852254</v>
+        <v>-7.826568260320094</v>
       </c>
       <c r="F76" t="n">
-        <v>2.50929423341181</v>
+        <v>2.511677032529004</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.934380549755156</v>
+        <v>-2.928986520984365</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.132204619868671</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.152710616410332</v>
+        <v>-8.147526064485008</v>
       </c>
       <c r="F77" t="n">
-        <v>2.358470904675125</v>
+        <v>2.3602514578616</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.807201919950629</v>
+        <v>-2.800276091747356</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.846220703365365</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.506490823799453</v>
+        <v>-8.500376718372367</v>
       </c>
       <c r="F78" t="n">
-        <v>2.255513035127791</v>
+        <v>2.256691342383547</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.642173442630672</v>
+        <v>-2.63518215291319</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.569516182043739</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.968138514301558</v>
+        <v>-8.961042486161341</v>
       </c>
       <c r="F79" t="n">
-        <v>2.366247732563111</v>
+        <v>2.364676656222104</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.358122840176583</v>
+        <v>-2.349272443455576</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.307323341127403</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.367506120185569</v>
+        <v>-9.360894507250498</v>
       </c>
       <c r="F80" t="n">
-        <v>2.078688392947439</v>
+        <v>2.077379162663266</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.810092135524771</v>
+        <v>-1.799487370222973</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.068679962840523</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00923843627561</v>
+        <v>-10.00262682334054</v>
       </c>
       <c r="F81" t="n">
-        <v>2.222494247360959</v>
+        <v>2.220399478906282</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.911688405576566</v>
+        <v>-1.901358578634444</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8590497127173646</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.66643276202174</v>
+        <v>-10.65963785684688</v>
       </c>
       <c r="F82" t="n">
-        <v>2.201520378208513</v>
+        <v>2.199111394485636</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.687233965658014</v>
+        <v>-1.676118600545389</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6861585548239729</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26764440081664</v>
+        <v>-11.26156957229808</v>
       </c>
       <c r="F83" t="n">
-        <v>1.885131787735361</v>
+        <v>1.883691634422771</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.285208622297132</v>
+        <v>-1.273320811316844</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5520983112042611</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15428133386401</v>
+        <v>-12.14730313644937</v>
       </c>
       <c r="F84" t="n">
-        <v>1.942737920238956</v>
+        <v>1.940695520995646</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.138640291984008</v>
+        <v>-1.125050481634297</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4610588156035069</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.78851176042575</v>
+        <v>-12.77988393285305</v>
       </c>
       <c r="F85" t="n">
-        <v>1.864026995554499</v>
+        <v>1.861696565648671</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8362866501571864</v>
+        <v>-0.822880132047259</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4121223383522836</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.5838036965464</v>
+        <v>-13.57843585238129</v>
       </c>
       <c r="F86" t="n">
-        <v>1.829332393023924</v>
+        <v>1.827054332329464</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6290485884755045</v>
+        <v>-0.6156551626684187</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4059949258191148</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.41067426712129</v>
+        <v>-14.404245946426</v>
       </c>
       <c r="F87" t="n">
-        <v>1.845802509998816</v>
+        <v>1.841612973089463</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2381778871357727</v>
+        <v>-0.2245226152718524</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4404998777674893</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.60598842426804</v>
+        <v>-15.59814613486585</v>
       </c>
       <c r="F88" t="n">
-        <v>1.867928501801333</v>
+        <v>1.863267641989679</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03915636396051059</v>
+        <v>0.05316512800115748</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.514467962254557</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.54703696792563</v>
+        <v>-16.54029443196214</v>
       </c>
       <c r="F89" t="n">
-        <v>1.609983951213646</v>
+        <v>1.605820598909977</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2243731722624093</v>
+        <v>0.2389972745366173</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.6244770143464602</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.94779554126474</v>
+        <v>-17.94106609760409</v>
       </c>
       <c r="F90" t="n">
-        <v>1.570104796757748</v>
+        <v>1.564815506409691</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6835071406189007</v>
+        <v>0.6992833655431807</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.7676105001397215</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.09910646856045</v>
+        <v>-19.09308400925325</v>
       </c>
       <c r="F91" t="n">
-        <v>1.261767972532258</v>
+        <v>1.257251128051862</v>
       </c>
       <c r="G91" t="n">
-        <v>0.654913551212571</v>
+        <v>0.6686342845907</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.9380617462080972</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.38245327001496</v>
+        <v>-20.37736036420953</v>
       </c>
       <c r="F92" t="n">
-        <v>1.053783649588597</v>
+        <v>1.048651466874641</v>
       </c>
       <c r="G92" t="n">
-        <v>1.152591259135104</v>
+        <v>1.164426700904024</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.132262907228357</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.97915124768335</v>
+        <v>-21.97150534282378</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9148350395293586</v>
+        <v>0.9087733033136395</v>
       </c>
       <c r="G93" t="n">
-        <v>1.150417936863378</v>
+        <v>1.162030809483989</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.343160751675341</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.61379071898705</v>
+        <v>-23.60562112201382</v>
       </c>
       <c r="F94" t="n">
-        <v>1.018120216647736</v>
+        <v>1.012569080242844</v>
       </c>
       <c r="G94" t="n">
-        <v>1.311479446422292</v>
+        <v>1.322241319358191</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.56747749443874</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.2876940065131</v>
+        <v>-25.2794720403285</v>
       </c>
       <c r="F95" t="n">
-        <v>0.298226852592586</v>
+        <v>0.2909475322125863</v>
       </c>
       <c r="G95" t="n">
-        <v>1.28765145525035</v>
+        <v>1.296933897965134</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.798030447571485</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.05732821241785</v>
+        <v>-27.04631758572796</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4621686687766798</v>
+        <v>0.4541561794375435</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9971594397981322</v>
+        <v>1.005355221377053</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.02847004399263</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.970859918856</v>
+        <v>-28.96115852245028</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1629233304015313</v>
+        <v>-0.1695611279422864</v>
       </c>
       <c r="G97" t="n">
-        <v>1.17190240582665</v>
+        <v>1.178343818824779</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.253262583217186</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.19956263160303</v>
+        <v>-31.19007071204278</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4355312601719515</v>
+        <v>-0.4449184413094691</v>
       </c>
       <c r="G98" t="n">
-        <v>1.045024898987483</v>
+        <v>1.049999974067339</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.462151601736174</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.37998093146977</v>
+        <v>-33.37052828881805</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4071602399139311</v>
+        <v>-0.4179875743640385</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6662645777763475</v>
+        <v>0.6695376534867791</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.654258063194998</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.35282076978095</v>
+        <v>-35.34538434176685</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.478709674943964</v>
+        <v>-0.4888562096463017</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4721711881477585</v>
+        <v>0.4763738173599527</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.810433257553758</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.1746670794185</v>
+        <v>-37.16823875872321</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8331314051723304</v>
+        <v>-0.847153261515819</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09399235593984352</v>
+        <v>-0.0921725258448436</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.938866117945055</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.47914804101344</v>
+        <v>-39.47393730448243</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7416162083086653</v>
+        <v>-0.7562926797942401</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6309731569932382</v>
+        <v>-0.6274251429231305</v>
       </c>
     </row>
   </sheetData>
